--- a/public/assets/pages/excel/staff.xlsx
+++ b/public/assets/pages/excel/staff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capecom\Documents\hdb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Projects\pixel\hdb-admin\public\assets\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4618E98-3D33-466E-9533-A93DB071D1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99CB33-2E70-41FB-8701-BF9BC31A0856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Staff No.</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>ajith@gmail.com</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>imprint</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -452,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,9 +475,10 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +494,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -497,6 +519,15 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/pages/excel/staff.xlsx
+++ b/public/assets/pages/excel/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Projects\pixel\hdb-admin\public\assets\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99CB33-2E70-41FB-8701-BF9BC31A0856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7D7A7-C670-4592-947B-68BBB772E0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,16 +66,16 @@
     <t>ajith@gmail.com</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>imprint</t>
-  </si>
-  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Imprint</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,13 +495,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -521,13 +521,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
